--- a/Documents/Enemies in BlenderMan.xlsx
+++ b/Documents/Enemies in BlenderMan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltim\OneDrive\Documents\Excel Documents\Game Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C0525-2A3D-47FB-AE25-93C3C403AFE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF36B822-EB69-4188-95F0-8D58A84DA2B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{D3116783-108D-4931-BD63-8F337A4D1BF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D3116783-108D-4931-BD63-8F337A4D1BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="157">
   <si>
     <t>NAME</t>
   </si>
@@ -361,9 +361,6 @@
     <t>Varied</t>
   </si>
   <si>
-    <t>10% +</t>
-  </si>
-  <si>
     <t>Law-Abiding Citizen</t>
   </si>
   <si>
@@ -485,6 +482,27 @@
   </si>
   <si>
     <t>Average ATK PWR =  40</t>
+  </si>
+  <si>
+    <t>25% +</t>
+  </si>
+  <si>
+    <t>8 &amp; 5</t>
+  </si>
+  <si>
+    <t>5 &amp; 8</t>
+  </si>
+  <si>
+    <t>Heals 2 HP per contact</t>
+  </si>
+  <si>
+    <t>20 &amp; 17</t>
+  </si>
+  <si>
+    <t>12 &amp; 24</t>
+  </si>
+  <si>
+    <t>Heals 5 HP per contact</t>
   </si>
 </sst>
 </file>
@@ -528,9 +546,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9927CA-FBD4-4F81-B9B6-A8E2561149A2}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -911,914 +935,1071 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2">
-        <v>75</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="2">
+        <v>225</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
         <v>112</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3">
-        <v>125</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="M3" s="2">
+        <v>375</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
         <v>114</v>
       </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M4">
-        <v>150</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="M4" s="2">
+        <v>450</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
         <v>116</v>
       </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="M5" s="2">
+        <v>600</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="M6" s="2">
+        <v>900</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
         <v>120</v>
       </c>
-      <c r="J7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M7">
-        <v>350</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="M7" s="2">
+        <v>1050</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M8">
-        <v>500</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
         <v>122</v>
       </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M9">
-        <v>650</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="M9" s="2">
+        <v>1950</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" t="s">
         <v>124</v>
       </c>
-      <c r="J10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M10">
-        <v>725</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="M10" s="2">
+        <v>2175</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M11">
-        <v>1000</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="M11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
+        <v>30</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
+        <v>25</v>
+      </c>
+      <c r="F23" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2">
+        <v>40</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="F28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E29" s="2">
+        <v>25</v>
+      </c>
+      <c r="F29" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E30" s="2">
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="2">
+        <v>60</v>
+      </c>
+      <c r="F33" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2">
+        <v>60</v>
+      </c>
+      <c r="F34" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="2">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2">
+        <v>60</v>
+      </c>
+      <c r="F37" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45</v>
+      </c>
+      <c r="F38" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="2">
+        <v>65</v>
+      </c>
+      <c r="F42" s="2">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2">
+        <v>75</v>
+      </c>
+      <c r="F43" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E45" s="2">
+        <v>60</v>
+      </c>
+      <c r="F45" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E46" s="2">
+        <v>100</v>
+      </c>
+      <c r="F46" s="2">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>80</v>
-      </c>
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E46" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="E49" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B48">
+      <c r="B51" s="2">
         <v>40</v>
       </c>
     </row>
@@ -1832,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BDFED3-490F-43E0-82C9-F201479135B0}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1852,36 +2033,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1910,7 +2091,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1939,7 +2120,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1968,7 +2149,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1997,7 +2178,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2026,7 +2207,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -2055,7 +2236,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -2084,7 +2265,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -2113,7 +2294,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -2142,7 +2323,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
